--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H2">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I2">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J2">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>6.346706735290667</v>
+        <v>37.82588791879133</v>
       </c>
       <c r="R2">
-        <v>57.12036061761599</v>
+        <v>340.432991269122</v>
       </c>
       <c r="S2">
-        <v>0.002446936286642172</v>
+        <v>0.01122093729025346</v>
       </c>
       <c r="T2">
-        <v>0.002446936286642172</v>
+        <v>0.01122093729025346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H3">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I3">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J3">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>10.45565463895511</v>
+        <v>36.67754406864967</v>
       </c>
       <c r="R3">
-        <v>94.10089175059599</v>
+        <v>330.097896617847</v>
       </c>
       <c r="S3">
-        <v>0.004031117523423132</v>
+        <v>0.01088028449823568</v>
       </c>
       <c r="T3">
-        <v>0.004031117523423131</v>
+        <v>0.01088028449823568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H4">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I4">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J4">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>9.254041905657777</v>
+        <v>37.34970620471</v>
       </c>
       <c r="R4">
-        <v>83.28637715092</v>
+        <v>336.14735584239</v>
       </c>
       <c r="S4">
-        <v>0.003567842643673726</v>
+        <v>0.01107967939925713</v>
       </c>
       <c r="T4">
-        <v>0.003567842643673726</v>
+        <v>0.01107967939925713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H5">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I5">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J5">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>4.194680671217779</v>
+        <v>14.90147881214033</v>
       </c>
       <c r="R5">
-        <v>37.75212604096001</v>
+        <v>134.113309309263</v>
       </c>
       <c r="S5">
-        <v>0.001617235012326318</v>
+        <v>0.004420479425150535</v>
       </c>
       <c r="T5">
-        <v>0.001617235012326318</v>
+        <v>0.004420479425150535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H6">
         <v>13.21205</v>
       </c>
       <c r="I6">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J6">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>435.7630216080667</v>
+        <v>740.3584814064557</v>
       </c>
       <c r="R6">
-        <v>3921.8671944726</v>
+        <v>6663.226332658101</v>
       </c>
       <c r="S6">
-        <v>0.1680059272347616</v>
+        <v>0.2196251442928342</v>
       </c>
       <c r="T6">
-        <v>0.1680059272347616</v>
+        <v>0.2196251442928342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H7">
         <v>13.21205</v>
       </c>
       <c r="I7">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J7">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>717.8821786465944</v>
+        <v>717.8821786465945</v>
       </c>
       <c r="R7">
-        <v>6460.939607819349</v>
+        <v>6460.93960781935</v>
       </c>
       <c r="S7">
-        <v>0.2767753459753393</v>
+        <v>0.2129576158444178</v>
       </c>
       <c r="T7">
-        <v>0.2767753459753393</v>
+        <v>0.2129576158444178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H8">
         <v>13.21205</v>
       </c>
       <c r="I8">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J8">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>635.3798010666111</v>
+        <v>731.0382726788333</v>
       </c>
       <c r="R8">
-        <v>5718.4182095995</v>
+        <v>6579.3444541095</v>
       </c>
       <c r="S8">
-        <v>0.244967028708657</v>
+        <v>0.2168603320592325</v>
       </c>
       <c r="T8">
-        <v>0.244967028708657</v>
+        <v>0.2168603320592325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H9">
         <v>13.21205</v>
       </c>
       <c r="I9">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J9">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>288.0055436951112</v>
+        <v>291.6636417829056</v>
       </c>
       <c r="R9">
-        <v>2592.049893256</v>
+        <v>2624.972776046151</v>
       </c>
       <c r="S9">
-        <v>0.1110388812678297</v>
+        <v>0.08652115295533049</v>
       </c>
       <c r="T9">
-        <v>0.1110388812678297</v>
+        <v>0.08652115295533049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I10">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J10">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>29.12246155905866</v>
+        <v>49.47886889327421</v>
       </c>
       <c r="R10">
-        <v>262.102154031528</v>
+        <v>445.3098200394679</v>
       </c>
       <c r="S10">
-        <v>0.01122799759266627</v>
+        <v>0.01467775948144466</v>
       </c>
       <c r="T10">
-        <v>0.01122799759266627</v>
+        <v>0.01467775948144466</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I11">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J11">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
         <v>47.97675597717977</v>
@@ -1131,10 +1131,10 @@
         <v>431.7908037946179</v>
       </c>
       <c r="S11">
-        <v>0.01849716238867013</v>
+        <v>0.01423216214687417</v>
       </c>
       <c r="T11">
-        <v>0.01849716238867013</v>
+        <v>0.01423216214687417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I12">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J12">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>42.46304278798443</v>
+        <v>48.85599038607332</v>
       </c>
       <c r="R12">
-        <v>382.16738509186</v>
+        <v>439.7039134746599</v>
       </c>
       <c r="S12">
-        <v>0.01637138197380404</v>
+        <v>0.01449298442252858</v>
       </c>
       <c r="T12">
-        <v>0.01637138197380405</v>
+        <v>0.01449298442252858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I13">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J13">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>19.24768729596445</v>
+        <v>19.49216150708022</v>
       </c>
       <c r="R13">
-        <v>173.22918566368</v>
+        <v>175.429453563722</v>
       </c>
       <c r="S13">
-        <v>0.007420835157949042</v>
+        <v>0.005782291810096084</v>
       </c>
       <c r="T13">
-        <v>0.007420835157949042</v>
+        <v>0.005782291810096084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H14">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I14">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J14">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>72.93613691074133</v>
+        <v>178.3074815325916</v>
       </c>
       <c r="R14">
-        <v>656.425232196672</v>
+        <v>1604.767333793324</v>
       </c>
       <c r="S14">
-        <v>0.02812010818492953</v>
+        <v>0.05289438473871965</v>
       </c>
       <c r="T14">
-        <v>0.02812010818492953</v>
+        <v>0.05289438473871966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H15">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I15">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J15">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>120.1560258012036</v>
+        <v>172.8943025930305</v>
       </c>
       <c r="R15">
-        <v>1081.404232210832</v>
+        <v>1556.048723337274</v>
       </c>
       <c r="S15">
-        <v>0.04632546482049053</v>
+        <v>0.05128858128601179</v>
       </c>
       <c r="T15">
-        <v>0.04632546482049053</v>
+        <v>0.05128858128601179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H16">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I16">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J16">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>106.3471333338489</v>
+        <v>176.0628081921533</v>
       </c>
       <c r="R16">
-        <v>957.1242000046401</v>
+        <v>1584.56527372938</v>
       </c>
       <c r="S16">
-        <v>0.0410015257342831</v>
+        <v>0.0522285090600248</v>
       </c>
       <c r="T16">
-        <v>0.0410015257342831</v>
+        <v>0.0522285090600248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H17">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I17">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J17">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>48.2051269253689</v>
+        <v>70.24409218914957</v>
       </c>
       <c r="R17">
-        <v>433.8461423283201</v>
+        <v>632.196829702346</v>
       </c>
       <c r="S17">
-        <v>0.01858520949455445</v>
+        <v>0.02083770128958855</v>
       </c>
       <c r="T17">
-        <v>0.01858520949455445</v>
+        <v>0.02083770128958855</v>
       </c>
     </row>
   </sheetData>
